--- a/assets/xls/quiz_data.xlsx
+++ b/assets/xls/quiz_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chdabre/dev/enter_quiz/assets/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F84069D-411B-5747-BA74-5431A252644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9F806-9EEC-364B-BB68-4BAF1B16B22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="1040" windowWidth="34060" windowHeight="19720" xr2:uid="{641B19EA-C993-E24E-9E14-ED37D9AC8F88}"/>
+    <workbookView xWindow="500" yWindow="1040" windowWidth="34060" windowHeight="19720" activeTab="1" xr2:uid="{641B19EA-C993-E24E-9E14-ED37D9AC8F88}"/>
   </bookViews>
   <sheets>
     <sheet name="SETTINGS" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="95">
   <si>
     <t>Question</t>
   </si>
@@ -332,6 +332,36 @@
   </si>
   <si>
     <t>You have answered all questions correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Herkömmliche KI-Modelle sind in der Lage einen Input, bspw. auf Bildern Hunde und Katzen zu unterscheiden, Klassifikationen, oder einen Zahlenwert vorherzusagen (Regression). 
+2. Generative ML-Modelle können hingegen neue, sehr realitätsnahe synthetische Output-Daten auf der Basis gelernter statistischer Verteilungen erstellen. 
+3. Sogenannte multi-modale Modelle sind sogar in der Lage statistische Zusammenhänge zwischen unterschiedlichen Medienformen wie Wörtern in Texten oder Pixeln in Bildern zu lernen.
+4. Bekannte Beispiele für generative Modelle sind ChatGPT oder DALL-E. </t>
+  </si>
+  <si>
+    <t>Das Erzeugen von Bildern mittels schriftlicher Instruktionen («Prompts»)</t>
+  </si>
+  <si>
+    <t>1. Stable Diffusion ist ein Text-zu-Bild-Generator-Modell, das mithilfe schriftlicher Instruktionen («Prompts») künstliche Bilder erzeugt. 
+2. Dazu wird schrittweise ein zufälliges Muster in ein Bild verwandelt, das dem Beschrieb des Prompts entspricht. 
+3. Wegen des initial zufälligen Musters werden auch bei gleichem Prompt unterschiedliche Bilder generiert.
+4. Das Stable-Diffusion-Modell der AI-Selfie Box verwendet übrigens ungefähr eine Milliarde Parameter und wurde anhand von mehr als fünf Milliarden Bildpaaren und Bildbeschreibungen aus dem Internet trainiert.</t>
+  </si>
+  <si>
+    <t>Typische Merkmale meines Gesichts werden auf ein animiertes Modell kopiert</t>
+  </si>
+  <si>
+    <t>1. Um künstliche Bilder von Ihnen herzustellen, muss das bestehende Stable-Diffusion-Modell zuerst mit verschiedenen Porträtbildern von Ihnen weitertrainieren. Dieser Prozess wird Finetuning genannt und dabei werden die Gewichte des neuronalen Netzes schrittweise vorsichtig angepasst. Dieser Prozess dauert einige Minuten.
+2. Die AI-Selfie Box verwendet für das Finetuning die DreamBooth-Methode. Dabei werden ein paar Bilder einer Person mit einem eindeutigen Identifikator und einem Klassennamen versehen und danach mit diesen weitertrainiert.
+3. Zum Beispiel werden ein paar Bilder von einem Menschen (Klassenname) namens «Robin» (Identifikator) gemacht. Anschliessend lernt das Modell, den Identifikator «Robin» mit dem Bild eines Menschen zu verbinden. 
+4. Nach dem Training können dann neue Bilder von «Robin» durch Prompts generiert werden, bspw. «Robin mit Handstand auf dem Mond» .</t>
+  </si>
+  <si>
+    <t>1. Auf Basis der von Ihnen gewählten Einstellungen («Drehknöpfe») wird automatisch eine Instruktion generiert, die bearbeitet werden kann. 
+2. Die fertige Instruktion (Prompt) wird dann als eine Art «Konditionierung» an das Modell weitergeleitet, um den Bilderzeugungsprozess zu steuern. 
+3. Der Prompt, also die schriftliche Eingabe, umfasst verschiedene Dimensionen. Im Falle des AI-Selfies sind diese das Thema, den Ort, die Zeitepoche, die Beleuchtung oder den Kunststil.
+4. Die Qualität des künstlich erzeugten Bildes hängt stark vom genauen Wortlaut des Prompts ab. Gewisse schriftliche Aufforderungen können nicht umgesetzt werden und führen deshalb zu ungenauen oder unschönen Bildern.</t>
   </si>
 </sst>
 </file>
@@ -712,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9EFE92-77F0-B046-BCFB-FC5FE4B48463}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -828,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73284F6F-3364-0341-AE68-F927D9816770}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -951,7 +981,7 @@
         <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="187" x14ac:dyDescent="0.2">
@@ -959,7 +989,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -977,7 +1007,7 @@
         <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>63</v>
@@ -997,7 +1027,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
@@ -1006,7 +1036,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>64</v>
@@ -1035,7 +1065,7 @@
         <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>65</v>
